--- a/Execucoes Gerais/novo_final_AGEO2-vs-AGEOsvar5.xlsx
+++ b/Execucoes Gerais/novo_final_AGEO2-vs-AGEOsvar5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14460" windowHeight="7905" activeTab="5"/>
+    <workbookView windowWidth="19485" windowHeight="7860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,67 +88,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,6 +105,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -176,45 +130,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +166,74 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -244,7 +244,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,13 +310,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +382,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,145 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,11 +438,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,218 +535,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1464,7 +1464,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -1474,7 +1474,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.241512345679012"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -2394,7 +2394,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -2404,8 +2404,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.257716049382716"/>
+              <c:y val="0.923619289275561"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3323,7 +3323,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -3333,7 +3333,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.260030864197531"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -4251,7 +4251,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -4261,7 +4261,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.243827160493827"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -5179,7 +5179,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -5189,8 +5189,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.241512345679012"/>
+              <c:y val="0.913202622608895"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6107,7 +6107,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -6117,8 +6117,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.246141975308642"/>
+              <c:y val="0.921539334059748"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9848,13 +9848,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>146685</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>178435</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9862,8 +9862,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="685800" y="7423150"/>
-        <a:ext cx="4128135" cy="2806700"/>
+        <a:off x="685800" y="7421880"/>
+        <a:ext cx="4107180" cy="2710180"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14673,8 +14673,8 @@
   <sheetPr/>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
